--- a/models2/rf5/es1/excel/wait 5 1.xlsx
+++ b/models2/rf5/es1/excel/wait 5 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Anaconda3\envs\MachineLearning2\TrafficSignalDRL\models2\rf5\es1\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AADF7AA-FF1C-4228-A6FD-256C09290261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC194C62-F853-4AE9-9A8F-526359FEBF83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,6 +204,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$30:$V$30</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$31:$V$31</c:f>
@@ -305,6 +376,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$30:$V$30</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$32:$V$32</c:f>
@@ -406,6 +548,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$30:$V$30</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$33:$V$33</c:f>
@@ -507,6 +720,77 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$30:$V$30</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>t0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>t5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>t7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>t9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>t11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>t12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>t13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>t14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>t15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>t20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$34:$V$34</c:f>
@@ -605,6 +889,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -652,10 +937,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
@@ -971,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:V34"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
